--- a/Data/colistin_pk_result.xlsx
+++ b/Data/colistin_pk_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sueinchoi/Documents/GitHub/Colistin/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F641DC14-BE2F-8A42-8EC0-EC16B543665D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB2AAC7-5010-3B47-82B7-6546EB44868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38460" yWindow="-7020" windowWidth="51680" windowHeight="22520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -507,11 +507,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -785,15 +794,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,6 +849,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,6 +884,10 @@
     <xf numFmtId="3" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,18 +1252,18 @@
     <row r="2" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="96"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="114"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="15"/>
@@ -1322,78 +1332,78 @@
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="102" t="s">
+      <c r="O5" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="105"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="102"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="108" t="s">
+      <c r="F6" s="106"/>
+      <c r="G6" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="110" t="s">
+      <c r="H6" s="104"/>
+      <c r="I6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="110" t="s">
+      <c r="J6" s="104"/>
+      <c r="K6" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="107"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="111" t="s">
+      <c r="O6" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="113" t="s">
+      <c r="P6" s="109"/>
+      <c r="Q6" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="114"/>
-      <c r="S6" s="113" t="s">
+      <c r="R6" s="111"/>
+      <c r="S6" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="112"/>
-      <c r="U6" s="115" t="s">
+      <c r="T6" s="109"/>
+      <c r="U6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="112"/>
-      <c r="W6" s="115" t="s">
+      <c r="V6" s="109"/>
+      <c r="W6" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="112"/>
+      <c r="X6" s="109"/>
     </row>
     <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -2398,78 +2408,78 @@
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="101"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="98"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="102" t="s">
+      <c r="O27" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="105"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="102"/>
     </row>
     <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108" t="s">
+      <c r="D28" s="104"/>
+      <c r="E28" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="108" t="s">
+      <c r="F28" s="106"/>
+      <c r="G28" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="107"/>
-      <c r="I28" s="110" t="s">
+      <c r="H28" s="104"/>
+      <c r="I28" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="107"/>
-      <c r="K28" s="110" t="s">
+      <c r="J28" s="104"/>
+      <c r="K28" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="107"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="111" t="s">
+      <c r="O28" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="113" t="s">
+      <c r="P28" s="109"/>
+      <c r="Q28" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="114"/>
-      <c r="S28" s="113" t="s">
+      <c r="R28" s="111"/>
+      <c r="S28" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="T28" s="112"/>
-      <c r="U28" s="115" t="s">
+      <c r="T28" s="109"/>
+      <c r="U28" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="V28" s="112"/>
-      <c r="W28" s="115" t="s">
+      <c r="V28" s="109"/>
+      <c r="W28" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="X28" s="112"/>
+      <c r="X28" s="109"/>
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
@@ -3422,78 +3432,78 @@
     <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="98" t="s">
+      <c r="C47" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="99"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="101"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="98"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="102" t="s">
+      <c r="O47" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="104"/>
-      <c r="R47" s="103"/>
-      <c r="S47" s="104"/>
-      <c r="T47" s="103"/>
-      <c r="U47" s="104"/>
-      <c r="V47" s="103"/>
-      <c r="W47" s="104"/>
-      <c r="X47" s="105"/>
+      <c r="P47" s="100"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="100"/>
+      <c r="S47" s="101"/>
+      <c r="T47" s="100"/>
+      <c r="U47" s="101"/>
+      <c r="V47" s="100"/>
+      <c r="W47" s="101"/>
+      <c r="X47" s="102"/>
     </row>
     <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="106" t="s">
+      <c r="C48" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="107"/>
-      <c r="E48" s="108" t="s">
+      <c r="D48" s="104"/>
+      <c r="E48" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="109"/>
-      <c r="G48" s="108" t="s">
+      <c r="F48" s="106"/>
+      <c r="G48" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="107"/>
-      <c r="I48" s="110" t="s">
+      <c r="H48" s="104"/>
+      <c r="I48" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="107"/>
-      <c r="K48" s="110" t="s">
+      <c r="J48" s="104"/>
+      <c r="K48" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="L48" s="107"/>
+      <c r="L48" s="104"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="111" t="s">
+      <c r="O48" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="P48" s="112"/>
-      <c r="Q48" s="113" t="s">
+      <c r="P48" s="109"/>
+      <c r="Q48" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="114"/>
-      <c r="S48" s="113" t="s">
+      <c r="R48" s="111"/>
+      <c r="S48" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="114"/>
-      <c r="U48" s="113" t="s">
+      <c r="T48" s="111"/>
+      <c r="U48" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="112"/>
-      <c r="W48" s="115" t="s">
+      <c r="V48" s="109"/>
+      <c r="W48" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="X48" s="112"/>
+      <c r="X48" s="109"/>
     </row>
     <row r="49" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
@@ -4446,30 +4456,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C47:L47"/>
-    <mergeCell ref="O47:X47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="O27:X27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C5:L5"/>
     <mergeCell ref="O5:X5"/>
@@ -4483,6 +4469,30 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="O27:X27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="C47:L47"/>
+    <mergeCell ref="O47:X47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4495,8 +4505,8 @@
   </sheetPr>
   <dimension ref="A1:AK89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G29" workbookViewId="0">
-      <selection activeCell="AK63" sqref="AK63"/>
+    <sheetView tabSelected="1" topLeftCell="F54" workbookViewId="0">
+      <selection activeCell="AH71" sqref="AH71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4563,18 +4573,18 @@
     <row r="2" spans="1:37" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
@@ -4682,45 +4692,45 @@
     <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="119"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="120" t="s">
+      <c r="U5" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="121"/>
-      <c r="AG5" s="121"/>
-      <c r="AH5" s="121"/>
-      <c r="AI5" s="121"/>
-      <c r="AJ5" s="121"/>
-      <c r="AK5" s="122"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="120"/>
+      <c r="AG5" s="120"/>
+      <c r="AH5" s="120"/>
+      <c r="AI5" s="120"/>
+      <c r="AJ5" s="120"/>
+      <c r="AK5" s="121"/>
     </row>
     <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -4977,8 +4987,8 @@
       <c r="P8" s="25">
         <v>0</v>
       </c>
-      <c r="Q8" s="27">
-        <v>4530</v>
+      <c r="Q8" s="42">
+        <v>0</v>
       </c>
       <c r="R8" s="25">
         <v>0</v>
@@ -5029,8 +5039,8 @@
       <c r="AH8" s="26">
         <v>0</v>
       </c>
-      <c r="AI8" s="27">
-        <v>626</v>
+      <c r="AI8" s="42">
+        <v>0</v>
       </c>
       <c r="AJ8" s="26">
         <v>0</v>
@@ -5085,7 +5095,7 @@
         <v>7290</v>
       </c>
       <c r="Q9" s="27">
-        <v>5280</v>
+        <v>4530</v>
       </c>
       <c r="R9" s="27">
         <v>4740</v>
@@ -5137,7 +5147,7 @@
         <v>1790</v>
       </c>
       <c r="AI9" s="27">
-        <v>1230</v>
+        <v>626</v>
       </c>
       <c r="AJ9" s="24">
         <v>630</v>
@@ -5192,7 +5202,7 @@
         <v>7030</v>
       </c>
       <c r="Q10" s="27">
-        <v>5990</v>
+        <v>5280</v>
       </c>
       <c r="R10" s="27">
         <v>5730</v>
@@ -5244,7 +5254,7 @@
         <v>1830</v>
       </c>
       <c r="AI10" s="27">
-        <v>1420</v>
+        <v>1230</v>
       </c>
       <c r="AJ10" s="24">
         <v>949</v>
@@ -5299,7 +5309,7 @@
         <v>8480</v>
       </c>
       <c r="Q11" s="27">
-        <v>7290</v>
+        <v>5990</v>
       </c>
       <c r="R11" s="27">
         <v>2990</v>
@@ -5351,7 +5361,7 @@
         <v>2270</v>
       </c>
       <c r="AI11" s="27">
-        <v>1610</v>
+        <v>1420</v>
       </c>
       <c r="AJ11" s="24">
         <v>287</v>
@@ -5406,7 +5416,7 @@
         <v>8780</v>
       </c>
       <c r="Q12" s="27">
-        <v>6640</v>
+        <v>7290</v>
       </c>
       <c r="R12" s="27">
         <v>2910</v>
@@ -5458,7 +5468,7 @@
         <v>1740</v>
       </c>
       <c r="AI12" s="27">
-        <v>1680</v>
+        <v>1610</v>
       </c>
       <c r="AJ12" s="24">
         <v>199</v>
@@ -5513,7 +5523,7 @@
         <v>7240</v>
       </c>
       <c r="Q13" s="27">
-        <v>10100</v>
+        <v>6640</v>
       </c>
       <c r="R13" s="27">
         <v>6400</v>
@@ -5565,7 +5575,7 @@
         <v>1600</v>
       </c>
       <c r="AI13" s="27">
-        <v>2420</v>
+        <v>1680</v>
       </c>
       <c r="AJ13" s="24">
         <v>1100</v>
@@ -5620,7 +5630,7 @@
         <v>7090</v>
       </c>
       <c r="Q14" s="27">
-        <v>6000</v>
+        <v>10100</v>
       </c>
       <c r="R14" s="27">
         <v>6350</v>
@@ -5670,7 +5680,7 @@
         <v>1740</v>
       </c>
       <c r="AI14" s="27">
-        <v>1020</v>
+        <v>2420</v>
       </c>
       <c r="AJ14" s="24">
         <v>1420</v>
@@ -5723,7 +5733,7 @@
         <v>8150</v>
       </c>
       <c r="Q15" s="27">
-        <v>7080</v>
+        <v>6000</v>
       </c>
       <c r="R15" s="27">
         <v>5880</v>
@@ -5773,7 +5783,7 @@
         <v>1930</v>
       </c>
       <c r="AI15" s="27">
-        <v>1600</v>
+        <v>1020</v>
       </c>
       <c r="AJ15" s="24">
         <v>1100</v>
@@ -5824,7 +5834,7 @@
         <v>8810</v>
       </c>
       <c r="Q16" s="27">
-        <v>7530</v>
+        <v>7080</v>
       </c>
       <c r="R16" s="27">
         <v>5760</v>
@@ -5872,7 +5882,7 @@
         <v>1760</v>
       </c>
       <c r="AI16" s="27">
-        <v>2290</v>
+        <v>1600</v>
       </c>
       <c r="AJ16" s="24">
         <v>993</v>
@@ -5923,7 +5933,7 @@
         <v>9420</v>
       </c>
       <c r="Q17" s="27">
-        <v>8040</v>
+        <v>7530</v>
       </c>
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
@@ -5969,7 +5979,7 @@
         <v>1990</v>
       </c>
       <c r="AI17" s="27">
-        <v>2150</v>
+        <v>2290</v>
       </c>
       <c r="AJ17" s="30"/>
       <c r="AK17" s="29"/>
@@ -6009,6 +6019,9 @@
       <c r="P18" s="27">
         <v>9400</v>
       </c>
+      <c r="Q18" s="27">
+        <v>8040</v>
+      </c>
       <c r="R18" s="27"/>
       <c r="S18" s="29"/>
       <c r="T18" s="1"/>
@@ -6044,7 +6057,9 @@
       <c r="AH18" s="27">
         <v>2480</v>
       </c>
-      <c r="AI18" s="27"/>
+      <c r="AI18" s="27">
+        <v>2150</v>
+      </c>
       <c r="AJ18" s="30"/>
       <c r="AK18" s="29"/>
     </row>
@@ -6434,45 +6449,45 @@
     <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="117" t="s">
+      <c r="C28" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="119"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="117"/>
+      <c r="S28" s="118"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="120" t="s">
+      <c r="U28" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="121"/>
-      <c r="AD28" s="121"/>
-      <c r="AE28" s="121"/>
-      <c r="AF28" s="121"/>
-      <c r="AG28" s="121"/>
-      <c r="AH28" s="121"/>
-      <c r="AI28" s="121"/>
-      <c r="AJ28" s="121"/>
-      <c r="AK28" s="122"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="120"/>
+      <c r="AA28" s="120"/>
+      <c r="AB28" s="120"/>
+      <c r="AC28" s="120"/>
+      <c r="AD28" s="120"/>
+      <c r="AE28" s="120"/>
+      <c r="AF28" s="120"/>
+      <c r="AG28" s="120"/>
+      <c r="AH28" s="120"/>
+      <c r="AI28" s="120"/>
+      <c r="AJ28" s="120"/>
+      <c r="AK28" s="121"/>
     </row>
     <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
@@ -6729,8 +6744,8 @@
       <c r="P31" s="15">
         <v>0</v>
       </c>
-      <c r="Q31" s="27">
-        <v>38700</v>
+      <c r="Q31" s="42">
+        <v>0</v>
       </c>
       <c r="R31" s="15">
         <v>0</v>
@@ -6781,8 +6796,8 @@
       <c r="AH31" s="15">
         <v>0</v>
       </c>
-      <c r="AI31" s="27">
-        <v>7010</v>
+      <c r="AI31" s="42">
+        <v>0</v>
       </c>
       <c r="AJ31" s="15">
         <v>0</v>
@@ -6837,7 +6852,7 @@
         <v>50200</v>
       </c>
       <c r="Q32" s="27">
-        <v>46700</v>
+        <v>38700</v>
       </c>
       <c r="R32" s="24">
         <v>40200</v>
@@ -6889,7 +6904,7 @@
         <v>7410</v>
       </c>
       <c r="AI32" s="27">
-        <v>8120</v>
+        <v>7010</v>
       </c>
       <c r="AJ32" s="24">
         <v>6840</v>
@@ -6944,7 +6959,7 @@
         <v>46800</v>
       </c>
       <c r="Q33" s="27">
-        <v>38700</v>
+        <v>46700</v>
       </c>
       <c r="R33" s="24">
         <v>21600</v>
@@ -6996,7 +7011,7 @@
         <v>7980</v>
       </c>
       <c r="AI33" s="27">
-        <v>6760</v>
+        <v>8120</v>
       </c>
       <c r="AJ33" s="24">
         <v>3670</v>
@@ -7051,7 +7066,7 @@
         <v>36300</v>
       </c>
       <c r="Q34" s="27">
-        <v>24800</v>
+        <v>38700</v>
       </c>
       <c r="R34" s="24">
         <v>9990</v>
@@ -7103,7 +7118,7 @@
         <v>6460</v>
       </c>
       <c r="AI34" s="27">
-        <v>4150</v>
+        <v>6760</v>
       </c>
       <c r="AJ34" s="24">
         <v>1470</v>
@@ -7158,7 +7173,7 @@
         <v>26400</v>
       </c>
       <c r="Q35" s="27">
-        <v>18500</v>
+        <v>24800</v>
       </c>
       <c r="R35" s="24">
         <v>6720</v>
@@ -7210,7 +7225,7 @@
         <v>4260</v>
       </c>
       <c r="AI35" s="27">
-        <v>2940</v>
+        <v>4150</v>
       </c>
       <c r="AJ35" s="24">
         <v>814</v>
@@ -7265,7 +7280,7 @@
         <v>15100</v>
       </c>
       <c r="Q36" s="27">
-        <v>13700</v>
+        <v>18500</v>
       </c>
       <c r="R36" s="24">
         <v>25600</v>
@@ -7317,7 +7332,7 @@
         <v>2360</v>
       </c>
       <c r="AI36" s="27">
-        <v>2590</v>
+        <v>2940</v>
       </c>
       <c r="AJ36" s="24">
         <v>4240</v>
@@ -7372,7 +7387,7 @@
         <v>13500</v>
       </c>
       <c r="Q37" s="27">
-        <v>18900</v>
+        <v>13700</v>
       </c>
       <c r="R37" s="24">
         <v>18800</v>
@@ -7422,7 +7437,7 @@
         <v>1840</v>
       </c>
       <c r="AI37" s="27">
-        <v>3470</v>
+        <v>2590</v>
       </c>
       <c r="AJ37" s="24">
         <v>2870</v>
@@ -7475,7 +7490,7 @@
         <v>41100</v>
       </c>
       <c r="Q38" s="27">
-        <v>14500</v>
+        <v>18900</v>
       </c>
       <c r="R38" s="24">
         <v>12300</v>
@@ -7525,7 +7540,7 @@
         <v>7130</v>
       </c>
       <c r="AI38" s="27">
-        <v>2560</v>
+        <v>3470</v>
       </c>
       <c r="AJ38" s="24">
         <v>1740</v>
@@ -7576,7 +7591,7 @@
         <v>25900</v>
       </c>
       <c r="Q39" s="27">
-        <v>12300</v>
+        <v>14500</v>
       </c>
       <c r="R39" s="24">
         <v>10100</v>
@@ -7624,7 +7639,7 @@
         <v>4090</v>
       </c>
       <c r="AI39" s="27">
-        <v>2690</v>
+        <v>2560</v>
       </c>
       <c r="AJ39" s="24">
         <v>1450</v>
@@ -7675,7 +7690,7 @@
         <v>23200</v>
       </c>
       <c r="Q40" s="27">
-        <v>19000</v>
+        <v>12300</v>
       </c>
       <c r="R40" s="30"/>
       <c r="S40" s="29"/>
@@ -7721,7 +7736,7 @@
         <v>3700</v>
       </c>
       <c r="AI40" s="27">
-        <v>5020</v>
+        <v>2690</v>
       </c>
       <c r="AJ40" s="31"/>
       <c r="AK40" s="29"/>
@@ -7761,6 +7776,9 @@
       <c r="P41" s="27">
         <v>17800</v>
       </c>
+      <c r="Q41" s="27">
+        <v>19000</v>
+      </c>
       <c r="R41" s="30"/>
       <c r="S41" s="29"/>
       <c r="T41" s="1"/>
@@ -7795,6 +7813,9 @@
       </c>
       <c r="AH41" s="27">
         <v>3140</v>
+      </c>
+      <c r="AI41" s="27">
+        <v>5020</v>
       </c>
       <c r="AJ41" s="24"/>
       <c r="AK41" s="29"/>
@@ -8107,45 +8128,45 @@
     <row r="49" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="117" t="s">
+      <c r="C49" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="118"/>
-      <c r="R49" s="118"/>
-      <c r="S49" s="119"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="117"/>
+      <c r="M49" s="117"/>
+      <c r="N49" s="117"/>
+      <c r="O49" s="117"/>
+      <c r="P49" s="117"/>
+      <c r="Q49" s="117"/>
+      <c r="R49" s="117"/>
+      <c r="S49" s="118"/>
       <c r="T49" s="1"/>
-      <c r="U49" s="120" t="s">
+      <c r="U49" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="121"/>
-      <c r="W49" s="121"/>
-      <c r="X49" s="121"/>
-      <c r="Y49" s="121"/>
-      <c r="Z49" s="121"/>
-      <c r="AA49" s="121"/>
-      <c r="AB49" s="121"/>
-      <c r="AC49" s="121"/>
-      <c r="AD49" s="121"/>
-      <c r="AE49" s="121"/>
-      <c r="AF49" s="121"/>
-      <c r="AG49" s="121"/>
-      <c r="AH49" s="121"/>
-      <c r="AI49" s="121"/>
-      <c r="AJ49" s="121"/>
-      <c r="AK49" s="122"/>
+      <c r="V49" s="120"/>
+      <c r="W49" s="120"/>
+      <c r="X49" s="120"/>
+      <c r="Y49" s="120"/>
+      <c r="Z49" s="120"/>
+      <c r="AA49" s="120"/>
+      <c r="AB49" s="120"/>
+      <c r="AC49" s="120"/>
+      <c r="AD49" s="120"/>
+      <c r="AE49" s="120"/>
+      <c r="AF49" s="120"/>
+      <c r="AG49" s="120"/>
+      <c r="AH49" s="120"/>
+      <c r="AI49" s="120"/>
+      <c r="AJ49" s="120"/>
+      <c r="AK49" s="121"/>
     </row>
     <row r="50" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
@@ -8402,9 +8423,8 @@
       <c r="P52" s="26">
         <v>0</v>
       </c>
-      <c r="Q52" s="27">
-        <f>Q31-Q8</f>
-        <v>34170</v>
+      <c r="Q52" s="42">
+        <v>0</v>
       </c>
       <c r="R52" s="26">
         <v>0</v>
@@ -8455,9 +8475,8 @@
       <c r="AH52" s="26">
         <v>0</v>
       </c>
-      <c r="AI52" s="27">
-        <f>AI31-AI9</f>
-        <v>5780</v>
+      <c r="AI52" s="42">
+        <v>0</v>
       </c>
       <c r="AJ52" s="26">
         <v>0</v>
@@ -8473,7 +8492,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="25">
-        <f t="shared" ref="D53:Q53" si="0">D32-D9</f>
+        <f t="shared" ref="D53:P53" si="0">D32-D9</f>
         <v>33470</v>
       </c>
       <c r="E53" s="25">
@@ -8526,7 +8545,7 @@
       </c>
       <c r="Q53" s="27">
         <f>Q32-Q9</f>
-        <v>41420</v>
+        <v>34170</v>
       </c>
       <c r="R53" s="27">
         <f t="shared" ref="R53:R60" si="1">R32-R11</f>
@@ -8541,7 +8560,7 @@
         <v>2</v>
       </c>
       <c r="V53" s="25">
-        <f t="shared" ref="V53:AI53" si="2">V32-V9</f>
+        <f t="shared" ref="V53:AI62" si="2">V32-V9</f>
         <v>4765</v>
       </c>
       <c r="W53" s="25">
@@ -8592,9 +8611,9 @@
         <f t="shared" si="2"/>
         <v>5620</v>
       </c>
-      <c r="AI53" s="27">
-        <f>AI32-AI10</f>
-        <v>6700</v>
+      <c r="AI53" s="126">
+        <f t="shared" si="2"/>
+        <v>6384</v>
       </c>
       <c r="AJ53" s="27">
         <f t="shared" ref="AJ53:AJ58" si="3">AJ34-AJ11</f>
@@ -8612,7 +8631,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="25">
-        <f t="shared" ref="D54:Q54" si="4">D33-D10</f>
+        <f t="shared" ref="D54:P54" si="4">D33-D10</f>
         <v>24120</v>
       </c>
       <c r="E54" s="25">
@@ -8665,7 +8684,7 @@
       </c>
       <c r="Q54" s="27">
         <f>Q33-Q10</f>
-        <v>32710</v>
+        <v>41420</v>
       </c>
       <c r="R54" s="27">
         <f t="shared" si="1"/>
@@ -8680,7 +8699,7 @@
         <v>3</v>
       </c>
       <c r="V54" s="25">
-        <f t="shared" ref="V54:AI54" si="5">V33-V10</f>
+        <f t="shared" ref="V54:AH54" si="5">V33-V10</f>
         <v>2843</v>
       </c>
       <c r="W54" s="25">
@@ -8731,9 +8750,9 @@
         <f t="shared" si="5"/>
         <v>6150</v>
       </c>
-      <c r="AI54" s="27">
-        <f>AI33-AI11</f>
-        <v>5150</v>
+      <c r="AI54" s="126">
+        <f t="shared" si="2"/>
+        <v>6890</v>
       </c>
       <c r="AJ54" s="27">
         <f t="shared" si="3"/>
@@ -8751,7 +8770,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="25">
-        <f t="shared" ref="D55:Q55" si="6">D34-D11</f>
+        <f t="shared" ref="D55:P55" si="6">D34-D11</f>
         <v>13850</v>
       </c>
       <c r="E55" s="25">
@@ -8804,7 +8823,7 @@
       </c>
       <c r="Q55" s="27">
         <f>Q34-Q11</f>
-        <v>17510</v>
+        <v>32710</v>
       </c>
       <c r="R55" s="27">
         <f t="shared" si="1"/>
@@ -8819,7 +8838,7 @@
         <v>4</v>
       </c>
       <c r="V55" s="25">
-        <f t="shared" ref="V55:AI55" si="7">V34-V11</f>
+        <f t="shared" ref="V55:AH55" si="7">V34-V11</f>
         <v>1765</v>
       </c>
       <c r="W55" s="25">
@@ -8870,9 +8889,9 @@
         <f t="shared" si="7"/>
         <v>4190</v>
       </c>
-      <c r="AI55" s="27">
-        <f>AI34-AI12</f>
-        <v>2470</v>
+      <c r="AI55" s="126">
+        <f t="shared" si="2"/>
+        <v>5340</v>
       </c>
       <c r="AJ55" s="27">
         <f t="shared" si="3"/>
@@ -8890,7 +8909,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="25">
-        <f t="shared" ref="D56:Q56" si="8">D35-D12</f>
+        <f t="shared" ref="D56:P56" si="8">D35-D12</f>
         <v>6680</v>
       </c>
       <c r="E56" s="25">
@@ -8943,7 +8962,7 @@
       </c>
       <c r="Q56" s="27">
         <f>Q35-Q12</f>
-        <v>11860</v>
+        <v>17510</v>
       </c>
       <c r="R56" s="27">
         <f t="shared" si="1"/>
@@ -8958,7 +8977,7 @@
         <v>5</v>
       </c>
       <c r="V56" s="25">
-        <f t="shared" ref="V56:AI56" si="9">V35-V12</f>
+        <f t="shared" ref="V56:AH56" si="9">V35-V12</f>
         <v>896</v>
       </c>
       <c r="W56" s="25">
@@ -9009,9 +9028,9 @@
         <f t="shared" si="9"/>
         <v>2520</v>
       </c>
-      <c r="AI56" s="27">
-        <f>AI35-AI13</f>
-        <v>520</v>
+      <c r="AI56" s="126">
+        <f t="shared" si="2"/>
+        <v>2540</v>
       </c>
       <c r="AJ56" s="27">
         <f t="shared" si="3"/>
@@ -9029,7 +9048,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="25">
-        <f t="shared" ref="D57:Q57" si="10">D36-D13</f>
+        <f t="shared" ref="D57:P57" si="10">D36-D13</f>
         <v>2960</v>
       </c>
       <c r="E57" s="25">
@@ -9082,7 +9101,7 @@
       </c>
       <c r="Q57" s="27">
         <f>Q36-Q13</f>
-        <v>3600</v>
+        <v>11860</v>
       </c>
       <c r="R57" s="27">
         <f t="shared" si="1"/>
@@ -9097,7 +9116,7 @@
         <v>6</v>
       </c>
       <c r="V57" s="25">
-        <f t="shared" ref="V57:AI57" si="11">V36-V13</f>
+        <f t="shared" ref="V57:AH57" si="11">V36-V13</f>
         <v>286</v>
       </c>
       <c r="W57" s="25">
@@ -9148,9 +9167,9 @@
         <f t="shared" si="11"/>
         <v>760</v>
       </c>
-      <c r="AI57" s="27">
-        <f>AI36-AI14</f>
-        <v>1570</v>
+      <c r="AI57" s="126">
+        <f t="shared" si="2"/>
+        <v>1260</v>
       </c>
       <c r="AJ57" s="27">
         <f t="shared" si="3"/>
@@ -9168,7 +9187,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="25">
-        <f t="shared" ref="D58:Q58" si="12">D37-D14</f>
+        <f t="shared" ref="D58:P58" si="12">D37-D14</f>
         <v>1660</v>
       </c>
       <c r="E58" s="25">
@@ -9221,7 +9240,7 @@
       </c>
       <c r="Q58" s="27">
         <f>Q37-Q14</f>
-        <v>12900</v>
+        <v>3600</v>
       </c>
       <c r="R58" s="27">
         <f t="shared" si="1"/>
@@ -9233,7 +9252,7 @@
         <v>7</v>
       </c>
       <c r="V58" s="25">
-        <f t="shared" ref="V58:AI58" si="13">V37-V14</f>
+        <f t="shared" ref="V58:AH58" si="13">V37-V14</f>
         <v>188</v>
       </c>
       <c r="W58" s="25">
@@ -9284,9 +9303,9 @@
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="AI58" s="27">
-        <f>AI37-AI15</f>
-        <v>1870</v>
+      <c r="AI58" s="126">
+        <f t="shared" si="2"/>
+        <v>170</v>
       </c>
       <c r="AJ58" s="27">
         <f t="shared" si="3"/>
@@ -9301,7 +9320,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="25">
-        <f t="shared" ref="D59:Q59" si="14">D38-D15</f>
+        <f t="shared" ref="D59:P59" si="14">D38-D15</f>
         <v>10540</v>
       </c>
       <c r="E59" s="25">
@@ -9354,7 +9373,7 @@
       </c>
       <c r="Q59" s="27">
         <f>Q38-Q15</f>
-        <v>7420</v>
+        <v>12900</v>
       </c>
       <c r="R59" s="27">
         <f t="shared" si="1"/>
@@ -9366,7 +9385,7 @@
         <v>8</v>
       </c>
       <c r="V59" s="25">
-        <f t="shared" ref="V59:AI59" si="15">V38-V15</f>
+        <f t="shared" ref="V59:AH59" si="15">V38-V15</f>
         <v>1471</v>
       </c>
       <c r="W59" s="25">
@@ -9417,9 +9436,9 @@
         <f t="shared" si="15"/>
         <v>5200</v>
       </c>
-      <c r="AI59" s="27">
-        <f>AI38-AI16</f>
-        <v>270</v>
+      <c r="AI59" s="126">
+        <f t="shared" si="2"/>
+        <v>2450</v>
       </c>
       <c r="AJ59" s="27">
         <f>AJ40-AJ19</f>
@@ -9451,7 +9470,7 @@
       </c>
       <c r="H60" s="26"/>
       <c r="I60" s="25">
-        <f t="shared" ref="I60:Q60" si="17">I39-I16</f>
+        <f t="shared" ref="I60:P60" si="17">I39-I16</f>
         <v>14700</v>
       </c>
       <c r="J60" s="25">
@@ -9484,7 +9503,7 @@
       </c>
       <c r="Q60" s="27">
         <f>Q39-Q16</f>
-        <v>4770</v>
+        <v>7420</v>
       </c>
       <c r="R60" s="27">
         <f t="shared" si="1"/>
@@ -9513,7 +9532,7 @@
       </c>
       <c r="Z60" s="26"/>
       <c r="AA60" s="25">
-        <f t="shared" ref="AA60:AI60" si="19">AA39-AA16</f>
+        <f t="shared" ref="AA60:AH60" si="19">AA39-AA16</f>
         <v>2100</v>
       </c>
       <c r="AB60" s="25">
@@ -9544,9 +9563,9 @@
         <f t="shared" si="19"/>
         <v>2330</v>
       </c>
-      <c r="AI60" s="27">
-        <f>AI39-AI17</f>
-        <v>540</v>
+      <c r="AI60" s="126">
+        <f t="shared" si="2"/>
+        <v>960</v>
       </c>
       <c r="AJ60" s="27">
         <f>AJ41-AJ20</f>
@@ -9578,7 +9597,7 @@
       </c>
       <c r="H61" s="26"/>
       <c r="I61" s="25">
-        <f t="shared" ref="I61:Q61" si="20">I40-I17</f>
+        <f t="shared" ref="I61:P61" si="20">I40-I17</f>
         <v>9500</v>
       </c>
       <c r="J61" s="25">
@@ -9611,7 +9630,7 @@
       </c>
       <c r="Q61" s="27">
         <f>Q40-Q17</f>
-        <v>10960</v>
+        <v>4770</v>
       </c>
       <c r="R61" s="30"/>
       <c r="S61" s="29"/>
@@ -9637,7 +9656,7 @@
       </c>
       <c r="Z61" s="26"/>
       <c r="AA61" s="25">
-        <f t="shared" ref="AA61:AI61" si="21">AA40-AA17</f>
+        <f t="shared" ref="AA61:AH61" si="21">AA40-AA17</f>
         <v>820</v>
       </c>
       <c r="AB61" s="25">
@@ -9668,9 +9687,9 @@
         <f t="shared" si="21"/>
         <v>1710</v>
       </c>
-      <c r="AI61" s="27">
-        <f>AI40-AI18</f>
-        <v>5020</v>
+      <c r="AI61" s="126">
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="AJ61" s="30"/>
       <c r="AK61" s="29"/>
@@ -9695,7 +9714,7 @@
       <c r="I62" s="26"/>
       <c r="J62" s="26"/>
       <c r="K62" s="25">
-        <f t="shared" ref="K62:Q62" si="22">K41-K18</f>
+        <f t="shared" ref="K62:P62" si="22">K41-K18</f>
         <v>1310</v>
       </c>
       <c r="L62" s="24">
@@ -9717,6 +9736,10 @@
       <c r="P62" s="27">
         <f t="shared" si="22"/>
         <v>8400</v>
+      </c>
+      <c r="Q62" s="27">
+        <f>Q41-Q18</f>
+        <v>10960</v>
       </c>
       <c r="R62" s="30"/>
       <c r="S62" s="29"/>
@@ -9738,7 +9761,7 @@
       <c r="AA62" s="26"/>
       <c r="AB62" s="26"/>
       <c r="AC62" s="25">
-        <f t="shared" ref="AC62:AI62" si="23">AC41-AC18</f>
+        <f t="shared" ref="AC62:AH62" si="23">AC41-AC18</f>
         <v>106</v>
       </c>
       <c r="AD62" s="24">
@@ -9760,6 +9783,10 @@
       <c r="AH62" s="27">
         <f t="shared" si="23"/>
         <v>660</v>
+      </c>
+      <c r="AI62" s="126">
+        <f t="shared" si="2"/>
+        <v>2870</v>
       </c>
       <c r="AJ62" s="30"/>
       <c r="AK62" s="29"/>
@@ -10160,25 +10187,25 @@
     <row r="72" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="123" t="s">
+      <c r="C72" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="124"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="124"/>
-      <c r="J72" s="124"/>
-      <c r="K72" s="124"/>
-      <c r="L72" s="124"/>
-      <c r="M72" s="124"/>
-      <c r="N72" s="124"/>
-      <c r="O72" s="124"/>
-      <c r="P72" s="124"/>
-      <c r="Q72" s="124"/>
-      <c r="R72" s="124"/>
-      <c r="S72" s="125"/>
+      <c r="D72" s="123"/>
+      <c r="E72" s="123"/>
+      <c r="F72" s="123"/>
+      <c r="G72" s="123"/>
+      <c r="H72" s="123"/>
+      <c r="I72" s="123"/>
+      <c r="J72" s="123"/>
+      <c r="K72" s="123"/>
+      <c r="L72" s="123"/>
+      <c r="M72" s="123"/>
+      <c r="N72" s="123"/>
+      <c r="O72" s="123"/>
+      <c r="P72" s="123"/>
+      <c r="Q72" s="123"/>
+      <c r="R72" s="123"/>
+      <c r="S72" s="124"/>
       <c r="T72" s="1"/>
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
@@ -10387,10 +10414,6 @@
       <c r="P75" s="26">
         <v>0</v>
       </c>
-      <c r="Q75" s="25">
-        <f>Q52+AI52</f>
-        <v>39950</v>
-      </c>
       <c r="R75" s="26">
         <v>0</v>
       </c>
@@ -10476,7 +10499,7 @@
       </c>
       <c r="Q76" s="25">
         <f>Q53+AI53</f>
-        <v>48120</v>
+        <v>40554</v>
       </c>
       <c r="R76" s="25">
         <f t="shared" si="24"/>
@@ -10565,7 +10588,7 @@
       </c>
       <c r="Q77" s="25">
         <f>Q54+AI54</f>
-        <v>37860</v>
+        <v>48310</v>
       </c>
       <c r="R77" s="25">
         <f t="shared" si="24"/>
@@ -10654,7 +10677,7 @@
       </c>
       <c r="Q78" s="25">
         <f>Q55+AI55</f>
-        <v>19980</v>
+        <v>38050</v>
       </c>
       <c r="R78" s="25">
         <f t="shared" si="24"/>
@@ -10743,7 +10766,7 @@
       </c>
       <c r="Q79" s="25">
         <f>Q56+AI56</f>
-        <v>12380</v>
+        <v>20050</v>
       </c>
       <c r="R79" s="25">
         <f t="shared" si="24"/>
@@ -10832,7 +10855,7 @@
       </c>
       <c r="Q80" s="25">
         <f>Q57+AI57</f>
-        <v>5170</v>
+        <v>13120</v>
       </c>
       <c r="R80" s="25">
         <f t="shared" si="24"/>
@@ -10921,7 +10944,7 @@
       </c>
       <c r="Q81" s="25">
         <f>Q58+AI58</f>
-        <v>14770</v>
+        <v>3770</v>
       </c>
       <c r="R81" s="25">
         <f t="shared" si="25"/>
@@ -11007,7 +11030,7 @@
       </c>
       <c r="Q82" s="25">
         <f>Q59+AI59</f>
-        <v>7690</v>
+        <v>15350</v>
       </c>
       <c r="R82" s="25">
         <f t="shared" si="25"/>
@@ -11090,7 +11113,7 @@
       </c>
       <c r="Q83" s="25">
         <f>Q60+AI60</f>
-        <v>5310</v>
+        <v>8380</v>
       </c>
       <c r="R83" s="25">
         <f t="shared" si="27"/>
@@ -11140,7 +11163,7 @@
       </c>
       <c r="H84" s="26"/>
       <c r="I84" s="25">
-        <f t="shared" ref="I84:Q84" si="28">I61+AA61</f>
+        <f t="shared" ref="I84:P84" si="28">I61+AA61</f>
         <v>10320</v>
       </c>
       <c r="J84" s="25">
@@ -11173,7 +11196,7 @@
       </c>
       <c r="Q84" s="25">
         <f>Q61+AI61</f>
-        <v>15980</v>
+        <v>5170</v>
       </c>
       <c r="R84" s="30"/>
       <c r="S84" s="31"/>
@@ -11216,7 +11239,7 @@
       <c r="I85" s="26"/>
       <c r="J85" s="26"/>
       <c r="K85" s="25">
-        <f t="shared" ref="K85:Q85" si="29">K62+AC62</f>
+        <f t="shared" ref="K85:P85" si="29">K62+AC62</f>
         <v>1416</v>
       </c>
       <c r="L85" s="25">
@@ -11238,6 +11261,10 @@
       <c r="P85" s="25">
         <f t="shared" si="29"/>
         <v>9060</v>
+      </c>
+      <c r="Q85" s="25">
+        <f>Q62+AI62</f>
+        <v>13830</v>
       </c>
       <c r="R85" s="30"/>
       <c r="S85" s="31"/>
